--- a/medicine/Bioéthique/David_Trosch/David_Trosch.xlsx
+++ b/medicine/Bioéthique/David_Trosch/David_Trosch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David Trosch (né le 29 novembre 1935 ; décédé le 12 octobre 2012) était un prêtre catholique américain de la ville de Mobile, en Alabama. 
 Il a fait l'objet de controverse en raison de sa promotion de la notion d'« homicide justifiable » dans le cas du meurtre des personnes effectuant des avortements.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il atteint la notoriété quand il a publié un dessin intitulé « homicide justifiable », représentant un homme tenant un pistolet à l'arrière d'un médecin effectuant un avortement. L'Église catholique lui demandera « d'abjurer sa position ». 
 Par la suite, David Trosch a été démis de ses fonctions paroissiales et suspendu par son évêque en raison de ses déclarations publiques. 
